--- a/pontinho2/outputs/gramatica/factor.xlsx
+++ b/pontinho2/outputs/gramatica/factor.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>"("</t>
   </si>
@@ -108,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -163,9 +160,6 @@
       <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -174,11 +168,14 @@
       <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
-        <v>7</v>
-      </c>
-      <c r="J2" s="0">
-        <v>12</v>
+      <c r="E2" s="0">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0">
+        <v>11</v>
+      </c>
+      <c r="K2" s="0">
+        <v>16</v>
       </c>
       <c r="L2" s="0">
         <v>17</v>
@@ -194,9 +191,6 @@
       </c>
       <c r="P2" s="0">
         <v>21</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -219,9 +213,6 @@
       <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="E5" s="0">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -232,13 +223,16 @@
       <c r="A7" s="0">
         <v>5</v>
       </c>
+      <c r="Q7" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>6</v>
       </c>
-      <c r="R8" s="0">
-        <v>5</v>
+      <c r="F8" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -261,28 +255,31 @@
       <c r="A11" s="0">
         <v>9</v>
       </c>
-      <c r="I11" s="0">
-        <v>10</v>
+      <c r="Q11" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="R12" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>11</v>
       </c>
+      <c r="B13" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>12</v>
       </c>
-      <c r="C14" s="0">
+      <c r="J14" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="0">
         <v>13</v>
       </c>
     </row>
@@ -290,36 +287,30 @@
       <c r="A15" s="0">
         <v>13</v>
       </c>
-      <c r="K15" s="0">
+      <c r="D15" s="0">
         <v>15</v>
-      </c>
-      <c r="R15" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>14</v>
       </c>
-      <c r="E16" s="0">
-        <v>16</v>
+      <c r="Q16" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="R17" s="0">
-        <v>14</v>
+      <c r="Q17" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
         <v>16</v>
       </c>
-      <c r="R18" s="0">
-        <v>11</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
@@ -344,11 +335,6 @@
     <row r="23">
       <c r="A23" s="0">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
